--- a/results/I3_N5_M3_T30_C150_DepCentral_s3_P2_res.xlsx
+++ b/results/I3_N5_M3_T30_C150_DepCentral_s3_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.37652248552366</v>
+        <v>1571.518995610193</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002999782562255859</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.24652248552367</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>13.29756500142714</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4.961708535750589</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.129999999999995</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -747,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -758,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>15.79579898937523</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.35722294236247</v>
+        <v>12.69023945846941</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>23.61797899241786</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>24.13769259370486</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10.33301651610693</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.7625163973153</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>23.61204927984102</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.2470593404437</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,188 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1321,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1332,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1343,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1354,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>131.6650000000005</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1376,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>142.3050000000005</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>123.4900000000005</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1398,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>145.1950000000005</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1409,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>138.0400000000005</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>45.6</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38.72499999999985</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1442,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>42.39499999999985</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>38.17499999999986</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>41.26499999999986</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1475,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>133.0399999999999</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1486,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>135.6449999999999</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>150.565</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1508,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>134.7699999999999</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1519,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>137.7699999999999</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>45.97500000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>45.44500000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1552,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>42.36000000000072</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1563,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>55.32000000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>51.5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>133.0399999999999</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>135.6449999999999</v>
+        <v>293</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>150.565</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.7699999999999</v>
+        <v>276</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1629,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>137.7699999999999</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>45.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1651,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>38.72499999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1662,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>42.39499999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>38.17499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1684,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>41.26499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>131.6650000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>142.3050000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>123.4900000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>145.1950000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1739,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>138.0400000000005</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
@@ -1560,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
@@ -1571,7 +1808,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5649999999999977</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5">
@@ -1582,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -1593,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
@@ -1750,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +2009,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +2031,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +2053,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2086,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +2152,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2163,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2174,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2196,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2229,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2240,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2251,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2055,12 +2292,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
     </row>
